--- a/INPUT/HPSetpoints.xlsx
+++ b/INPUT/HPSetpoints.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WP Jumbo\INPUT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2138DE91-12E8-45B4-8F35-91786A9ACE6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FEF0732-EDDC-4327-821A-9636702ECC0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38820" yWindow="1450" windowWidth="35250" windowHeight="15460" xr2:uid="{A6AE4BAC-2A93-431D-9AF1-84B4A36349B0}"/>
+    <workbookView xWindow="9470" yWindow="1040" windowWidth="35250" windowHeight="15450" xr2:uid="{A6AE4BAC-2A93-431D-9AF1-84B4A36349B0}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -19,14 +19,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -66,12 +58,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -86,8 +84,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -402,10 +401,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF6DF9AC-AC96-4E81-92BF-929A0FD33CFA}">
-  <dimension ref="A1:F37"/>
+  <dimension ref="A1:F87"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="F89" sqref="F89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -634,7 +633,7 @@
         <v>140</v>
       </c>
       <c r="F11">
-        <f t="shared" ref="F11:F16" si="0">F3*1.15</f>
+        <f t="shared" ref="F11:F15" si="0">F3*1.15</f>
         <v>66.125</v>
       </c>
     </row>
@@ -810,7 +809,7 @@
         <v>12</v>
       </c>
       <c r="C20">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D20">
         <v>24000</v>
@@ -830,7 +829,7 @@
         <v>-7</v>
       </c>
       <c r="C21">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D21">
         <v>24000</v>
@@ -850,7 +849,7 @@
         <v>-7</v>
       </c>
       <c r="C22">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D22">
         <v>24000</v>
@@ -870,7 +869,7 @@
         <v>-7</v>
       </c>
       <c r="C23">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D23">
         <v>24000</v>
@@ -930,7 +929,7 @@
         <v>2</v>
       </c>
       <c r="C26">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D26">
         <v>24000</v>
@@ -950,7 +949,7 @@
         <v>2</v>
       </c>
       <c r="C27">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D27">
         <v>24000</v>
@@ -1010,7 +1009,7 @@
         <v>7</v>
       </c>
       <c r="C30">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D30">
         <v>24000</v>
@@ -1030,7 +1029,7 @@
         <v>7</v>
       </c>
       <c r="C31">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D31">
         <v>24000</v>
@@ -1160,6 +1159,1012 @@
       </c>
       <c r="F37">
         <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A38">
+        <v>55</v>
+      </c>
+      <c r="B38">
+        <v>-7</v>
+      </c>
+      <c r="C38">
+        <v>8</v>
+      </c>
+      <c r="D38">
+        <v>24000</v>
+      </c>
+      <c r="E38">
+        <v>140</v>
+      </c>
+      <c r="F38">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A39">
+        <v>55</v>
+      </c>
+      <c r="B39">
+        <v>-7</v>
+      </c>
+      <c r="C39">
+        <v>8</v>
+      </c>
+      <c r="D39">
+        <v>24000</v>
+      </c>
+      <c r="E39">
+        <v>140</v>
+      </c>
+      <c r="F39">
+        <v>57.5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A40">
+        <v>55</v>
+      </c>
+      <c r="B40">
+        <v>-7</v>
+      </c>
+      <c r="C40">
+        <v>8</v>
+      </c>
+      <c r="D40">
+        <v>24000</v>
+      </c>
+      <c r="E40">
+        <v>140</v>
+      </c>
+      <c r="F40">
+        <v>47.5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A41">
+        <v>55</v>
+      </c>
+      <c r="B41">
+        <v>-7</v>
+      </c>
+      <c r="C41">
+        <v>8</v>
+      </c>
+      <c r="D41">
+        <v>24000</v>
+      </c>
+      <c r="E41">
+        <v>140</v>
+      </c>
+      <c r="F41">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A42">
+        <v>55</v>
+      </c>
+      <c r="B42">
+        <v>-7</v>
+      </c>
+      <c r="C42">
+        <v>8</v>
+      </c>
+      <c r="D42">
+        <v>24000</v>
+      </c>
+      <c r="E42">
+        <v>120</v>
+      </c>
+      <c r="F42">
+        <v>47.5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A43">
+        <v>55</v>
+      </c>
+      <c r="B43">
+        <v>-7</v>
+      </c>
+      <c r="C43">
+        <v>8</v>
+      </c>
+      <c r="D43">
+        <v>24000</v>
+      </c>
+      <c r="E43">
+        <v>100</v>
+      </c>
+      <c r="F43">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A44">
+        <v>55</v>
+      </c>
+      <c r="B44">
+        <v>-7</v>
+      </c>
+      <c r="C44">
+        <v>8</v>
+      </c>
+      <c r="D44">
+        <v>28000</v>
+      </c>
+      <c r="E44">
+        <v>140</v>
+      </c>
+      <c r="F44">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A45" s="1">
+        <v>55</v>
+      </c>
+      <c r="B45" s="1">
+        <v>-7</v>
+      </c>
+      <c r="C45" s="1">
+        <v>5</v>
+      </c>
+      <c r="D45" s="1">
+        <v>24000</v>
+      </c>
+      <c r="E45" s="1">
+        <v>140</v>
+      </c>
+      <c r="F45" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A46">
+        <v>55</v>
+      </c>
+      <c r="B46">
+        <v>-7</v>
+      </c>
+      <c r="C46">
+        <v>5</v>
+      </c>
+      <c r="D46">
+        <v>24000</v>
+      </c>
+      <c r="E46">
+        <v>140</v>
+      </c>
+      <c r="F46">
+        <v>57.5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A47">
+        <v>55</v>
+      </c>
+      <c r="B47">
+        <v>-7</v>
+      </c>
+      <c r="C47">
+        <v>5</v>
+      </c>
+      <c r="D47">
+        <v>24000</v>
+      </c>
+      <c r="E47">
+        <v>140</v>
+      </c>
+      <c r="F47">
+        <v>47.5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A48">
+        <v>55</v>
+      </c>
+      <c r="B48">
+        <v>-7</v>
+      </c>
+      <c r="C48">
+        <v>5</v>
+      </c>
+      <c r="D48">
+        <v>24000</v>
+      </c>
+      <c r="E48">
+        <v>140</v>
+      </c>
+      <c r="F48">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A49">
+        <v>55</v>
+      </c>
+      <c r="B49">
+        <v>-7</v>
+      </c>
+      <c r="C49">
+        <v>5</v>
+      </c>
+      <c r="D49">
+        <v>20571.428571428572</v>
+      </c>
+      <c r="E49">
+        <v>120</v>
+      </c>
+      <c r="F49">
+        <v>47.5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A50">
+        <v>55</v>
+      </c>
+      <c r="B50">
+        <v>-7</v>
+      </c>
+      <c r="C50">
+        <v>5</v>
+      </c>
+      <c r="D50">
+        <v>17142.857142857141</v>
+      </c>
+      <c r="E50">
+        <v>100</v>
+      </c>
+      <c r="F50">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A51">
+        <v>55</v>
+      </c>
+      <c r="B51">
+        <v>-7</v>
+      </c>
+      <c r="C51">
+        <v>5</v>
+      </c>
+      <c r="D51">
+        <v>28000</v>
+      </c>
+      <c r="E51">
+        <v>140</v>
+      </c>
+      <c r="F51">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A52">
+        <v>35</v>
+      </c>
+      <c r="B52">
+        <v>-7</v>
+      </c>
+      <c r="C52">
+        <v>5</v>
+      </c>
+      <c r="D52">
+        <v>24000</v>
+      </c>
+      <c r="E52">
+        <v>140</v>
+      </c>
+      <c r="F52">
+        <v>50.5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A53">
+        <v>35</v>
+      </c>
+      <c r="B53">
+        <v>-7</v>
+      </c>
+      <c r="C53">
+        <v>5</v>
+      </c>
+      <c r="D53">
+        <v>24000</v>
+      </c>
+      <c r="E53">
+        <v>140</v>
+      </c>
+      <c r="F53">
+        <f>F45*1.15</f>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A54">
+        <v>35</v>
+      </c>
+      <c r="B54">
+        <v>-7</v>
+      </c>
+      <c r="C54">
+        <v>5</v>
+      </c>
+      <c r="D54">
+        <v>24000</v>
+      </c>
+      <c r="E54">
+        <v>140</v>
+      </c>
+      <c r="F54">
+        <f t="shared" ref="F54:F58" si="1">F46*1.15</f>
+        <v>66.125</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A55">
+        <v>35</v>
+      </c>
+      <c r="B55">
+        <v>-7</v>
+      </c>
+      <c r="C55">
+        <v>5</v>
+      </c>
+      <c r="D55">
+        <v>24000</v>
+      </c>
+      <c r="E55">
+        <v>140</v>
+      </c>
+      <c r="F55">
+        <f t="shared" si="1"/>
+        <v>54.624999999999993</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A56">
+        <v>35</v>
+      </c>
+      <c r="B56">
+        <v>-7</v>
+      </c>
+      <c r="C56">
+        <v>5</v>
+      </c>
+      <c r="D56">
+        <v>20571.428571428572</v>
+      </c>
+      <c r="E56">
+        <v>120</v>
+      </c>
+      <c r="F56">
+        <f t="shared" si="1"/>
+        <v>34.5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A57">
+        <v>35</v>
+      </c>
+      <c r="B57">
+        <v>-7</v>
+      </c>
+      <c r="C57">
+        <v>5</v>
+      </c>
+      <c r="D57">
+        <v>17142.857142857141</v>
+      </c>
+      <c r="E57">
+        <v>100</v>
+      </c>
+      <c r="F57">
+        <f t="shared" si="1"/>
+        <v>54.624999999999993</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A58">
+        <v>35</v>
+      </c>
+      <c r="B58">
+        <v>-7</v>
+      </c>
+      <c r="C58">
+        <v>5</v>
+      </c>
+      <c r="D58">
+        <v>28000</v>
+      </c>
+      <c r="E58">
+        <v>140</v>
+      </c>
+      <c r="F58">
+        <f t="shared" si="1"/>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A59">
+        <v>35</v>
+      </c>
+      <c r="B59">
+        <v>-7</v>
+      </c>
+      <c r="C59">
+        <v>7</v>
+      </c>
+      <c r="D59">
+        <v>28000</v>
+      </c>
+      <c r="E59">
+        <v>140</v>
+      </c>
+      <c r="F59">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A60">
+        <v>35</v>
+      </c>
+      <c r="B60">
+        <v>2</v>
+      </c>
+      <c r="C60">
+        <v>5</v>
+      </c>
+      <c r="D60">
+        <v>24000</v>
+      </c>
+      <c r="E60">
+        <v>140</v>
+      </c>
+      <c r="F60">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A61">
+        <v>35</v>
+      </c>
+      <c r="B61">
+        <v>2</v>
+      </c>
+      <c r="C61">
+        <v>5</v>
+      </c>
+      <c r="D61">
+        <v>20571.428571428572</v>
+      </c>
+      <c r="E61">
+        <v>120</v>
+      </c>
+      <c r="F61">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A62">
+        <v>35</v>
+      </c>
+      <c r="B62">
+        <v>12</v>
+      </c>
+      <c r="C62">
+        <v>5</v>
+      </c>
+      <c r="D62">
+        <v>12000</v>
+      </c>
+      <c r="E62">
+        <v>40</v>
+      </c>
+      <c r="F62">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A63">
+        <v>55</v>
+      </c>
+      <c r="B63">
+        <v>12</v>
+      </c>
+      <c r="C63">
+        <v>8</v>
+      </c>
+      <c r="D63">
+        <v>12000</v>
+      </c>
+      <c r="E63">
+        <v>40</v>
+      </c>
+      <c r="F63">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A64">
+        <v>55</v>
+      </c>
+      <c r="B64">
+        <v>-7</v>
+      </c>
+      <c r="C64">
+        <v>8</v>
+      </c>
+      <c r="D64">
+        <v>13714.285714285714</v>
+      </c>
+      <c r="E64">
+        <v>80</v>
+      </c>
+      <c r="F64">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A65">
+        <v>52</v>
+      </c>
+      <c r="B65">
+        <v>-7</v>
+      </c>
+      <c r="C65">
+        <v>8</v>
+      </c>
+      <c r="D65">
+        <v>24000</v>
+      </c>
+      <c r="E65">
+        <v>140</v>
+      </c>
+      <c r="F65">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A66">
+        <v>52</v>
+      </c>
+      <c r="B66">
+        <v>-7</v>
+      </c>
+      <c r="C66">
+        <v>8</v>
+      </c>
+      <c r="D66">
+        <v>20571.428571428572</v>
+      </c>
+      <c r="E66">
+        <v>120</v>
+      </c>
+      <c r="F66">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A67">
+        <v>32</v>
+      </c>
+      <c r="B67">
+        <v>-7</v>
+      </c>
+      <c r="C67">
+        <v>5</v>
+      </c>
+      <c r="D67">
+        <v>24000</v>
+      </c>
+      <c r="E67">
+        <v>140</v>
+      </c>
+      <c r="F67">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A68">
+        <v>32</v>
+      </c>
+      <c r="B68">
+        <v>-7</v>
+      </c>
+      <c r="C68">
+        <v>5</v>
+      </c>
+      <c r="D68">
+        <v>20571.428571428572</v>
+      </c>
+      <c r="E68">
+        <v>120</v>
+      </c>
+      <c r="F68">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A69">
+        <v>42</v>
+      </c>
+      <c r="B69">
+        <v>2</v>
+      </c>
+      <c r="C69">
+        <v>8</v>
+      </c>
+      <c r="D69">
+        <v>12000</v>
+      </c>
+      <c r="E69">
+        <v>70</v>
+      </c>
+      <c r="F69">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A70">
+        <v>42</v>
+      </c>
+      <c r="B70">
+        <v>2</v>
+      </c>
+      <c r="C70">
+        <v>8</v>
+      </c>
+      <c r="D70">
+        <v>12000</v>
+      </c>
+      <c r="E70">
+        <v>60</v>
+      </c>
+      <c r="F70">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A71">
+        <v>30</v>
+      </c>
+      <c r="B71">
+        <v>2</v>
+      </c>
+      <c r="C71">
+        <v>5</v>
+      </c>
+      <c r="D71">
+        <v>12000</v>
+      </c>
+      <c r="E71">
+        <v>70</v>
+      </c>
+      <c r="F71">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A72">
+        <v>30</v>
+      </c>
+      <c r="B72">
+        <v>2</v>
+      </c>
+      <c r="C72">
+        <v>5</v>
+      </c>
+      <c r="D72">
+        <v>12000</v>
+      </c>
+      <c r="E72">
+        <v>60</v>
+      </c>
+      <c r="F72">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A73">
+        <v>36</v>
+      </c>
+      <c r="B73">
+        <v>7</v>
+      </c>
+      <c r="C73">
+        <v>8</v>
+      </c>
+      <c r="D73">
+        <v>12000</v>
+      </c>
+      <c r="E73">
+        <v>40</v>
+      </c>
+      <c r="F73">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A74">
+        <v>36</v>
+      </c>
+      <c r="B74">
+        <v>7</v>
+      </c>
+      <c r="C74">
+        <v>8</v>
+      </c>
+      <c r="D74">
+        <v>12000</v>
+      </c>
+      <c r="E74">
+        <v>36</v>
+      </c>
+      <c r="F74">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A75">
+        <v>30</v>
+      </c>
+      <c r="B75">
+        <v>7</v>
+      </c>
+      <c r="C75">
+        <v>5</v>
+      </c>
+      <c r="D75">
+        <v>12000</v>
+      </c>
+      <c r="E75">
+        <v>60</v>
+      </c>
+      <c r="F75">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A76">
+        <v>30</v>
+      </c>
+      <c r="B76">
+        <v>7</v>
+      </c>
+      <c r="C76">
+        <v>5</v>
+      </c>
+      <c r="D76">
+        <v>12000</v>
+      </c>
+      <c r="E76">
+        <v>40</v>
+      </c>
+      <c r="F76">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A77">
+        <v>30</v>
+      </c>
+      <c r="B77">
+        <v>12</v>
+      </c>
+      <c r="C77">
+        <v>5</v>
+      </c>
+      <c r="D77">
+        <v>12000</v>
+      </c>
+      <c r="E77">
+        <v>30</v>
+      </c>
+      <c r="F77">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A78">
+        <v>30</v>
+      </c>
+      <c r="B78">
+        <v>12</v>
+      </c>
+      <c r="C78">
+        <v>5</v>
+      </c>
+      <c r="D78">
+        <v>12000</v>
+      </c>
+      <c r="E78">
+        <v>30</v>
+      </c>
+      <c r="F78">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A79">
+        <v>27</v>
+      </c>
+      <c r="B79">
+        <v>12</v>
+      </c>
+      <c r="C79">
+        <v>5</v>
+      </c>
+      <c r="D79">
+        <v>12000</v>
+      </c>
+      <c r="E79">
+        <v>30</v>
+      </c>
+      <c r="F79">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A80">
+        <v>27</v>
+      </c>
+      <c r="B80">
+        <v>12</v>
+      </c>
+      <c r="C80">
+        <v>5</v>
+      </c>
+      <c r="D80">
+        <v>12000</v>
+      </c>
+      <c r="E80">
+        <v>30</v>
+      </c>
+      <c r="F80">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A81">
+        <v>55</v>
+      </c>
+      <c r="B81">
+        <v>-7</v>
+      </c>
+      <c r="C81">
+        <v>8</v>
+      </c>
+      <c r="D81">
+        <v>24000</v>
+      </c>
+      <c r="E81">
+        <v>140</v>
+      </c>
+      <c r="F81">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A82">
+        <v>55</v>
+      </c>
+      <c r="B82">
+        <v>-7</v>
+      </c>
+      <c r="C82">
+        <v>8</v>
+      </c>
+      <c r="D82">
+        <v>24000</v>
+      </c>
+      <c r="E82">
+        <v>140</v>
+      </c>
+      <c r="F82">
+        <v>57.5</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A83">
+        <v>55</v>
+      </c>
+      <c r="B83">
+        <v>-7</v>
+      </c>
+      <c r="C83">
+        <v>8</v>
+      </c>
+      <c r="D83">
+        <v>24000</v>
+      </c>
+      <c r="E83">
+        <v>140</v>
+      </c>
+      <c r="F83">
+        <v>47.5</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A84">
+        <v>55</v>
+      </c>
+      <c r="B84">
+        <v>-7</v>
+      </c>
+      <c r="C84">
+        <v>8</v>
+      </c>
+      <c r="D84">
+        <v>24000</v>
+      </c>
+      <c r="E84">
+        <v>140</v>
+      </c>
+      <c r="F84">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A85">
+        <v>55</v>
+      </c>
+      <c r="B85">
+        <v>-7</v>
+      </c>
+      <c r="C85">
+        <v>8</v>
+      </c>
+      <c r="D85">
+        <v>20571.428571428572</v>
+      </c>
+      <c r="E85">
+        <v>120</v>
+      </c>
+      <c r="F85">
+        <v>47.5</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A86">
+        <v>55</v>
+      </c>
+      <c r="B86">
+        <v>-7</v>
+      </c>
+      <c r="C86">
+        <v>8</v>
+      </c>
+      <c r="D86">
+        <v>17142.857142857141</v>
+      </c>
+      <c r="E86">
+        <v>100</v>
+      </c>
+      <c r="F86">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A87">
+        <v>55</v>
+      </c>
+      <c r="B87">
+        <v>-7</v>
+      </c>
+      <c r="C87">
+        <v>8</v>
+      </c>
+      <c r="D87">
+        <v>28000</v>
+      </c>
+      <c r="E87">
+        <v>140</v>
+      </c>
+      <c r="F87">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
